--- a/Project/SubwayPrediction/Reference/선행연구_지하철혼잡도예측.xlsx
+++ b/Project/SubwayPrediction/Reference/선행연구_지하철혼잡도예측.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\SubwayPrediction\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B70AFF-1009-4FCE-B011-0EEC31F6F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116DE77-B47E-462A-9CB9-237A9183AA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
   </bookViews>
   <sheets>
     <sheet name="지하철" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="유학생" sheetId="1" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지하철!$A$2:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지하철!$B$2:$O$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="272">
   <si>
     <t>출처</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,6 +875,197 @@
     <t>12개의 혼잡도 완화 전략을 분석하여 성공적인 사례와 주요 교훈을 도출하였습니다.
 이러한 전략들은 다양한 도시 규모와 예상 구현 시간을 고려하여 분석되었습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구목적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하철 혼잡도 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A hybrid clustering–regression approach for predicting passenger congestion in a carriage at a subway platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expert Systems with Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년 1월 ~ 2021년 3월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체수집 (DB 수 불필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 1호선 대상 RNN 및 그래프 기반 딥러닝 6개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv-LSTM 기준 89.11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fine-Grained Passenger Load Prediction inside Metro Network via Smart Card Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Journal of Intelligent Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZ-Link Card Data (1개 DB 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱가폴 7호선 대상 ARIMA, 랜덤포레스트, LSTM, 자체개발 4개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체개발 기준 MSE 2433.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년 1월 1일 ~ 20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항저우 3개노선 대상 LSTM 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM 기준 R^2 97.1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction of short-term passenger flow of subway based on LSTM model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the 3rd International Conference on Computing Innovation and Applied Physics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepPF: A deep learning based architecture for metro passenger flow prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transportation Research Part C: Emerging Technologies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subway Card Swipe Data (1개 DB 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nanjing Metro System (1개 DB 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016년 3월 18일 ~ 4월 30일
+2016년 8월 1일 ~ 11월 9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016년 1월 ~ 3월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승객 유입과 유출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승객수요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승객 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난징 1개역 대상 ARIMA, 딥러닝 등 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 기준 RMSE 8.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advances in Traffic Congestion Prediction: An Overview of Emerging Techniques and Methods</t>
+  </si>
+  <si>
+    <t>Diffusion Convolutional Recurrent Neural Network: Data-Driven Traffic Forecasting</t>
+  </si>
+  <si>
+    <t>Bus-Passenger-Flow Prediction Model Based on WPD, Attention Mechanism, and Bi-LSTM</t>
+  </si>
+  <si>
+    <t>교통분야 AI기반 혼잡도 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통분야 XAI기반 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning XAI for Bus Passenger Forecasting: A Use Case in Spain</t>
+  </si>
+  <si>
+    <t>Towards Transparent Traffic Solutions: Reinforcement Learning and Explainable AI for Traffic Congestion</t>
+  </si>
+  <si>
+    <t>Improving traffic accident severity prediction using MobileNet transfer learning model and SHAP XAI technique</t>
+  </si>
+  <si>
+    <t>Advances in Traffic Congestion Prediction: An Overview of Emerging Techniques and Methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personalized predictive public transport crowding information with automated data sources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crowding on Trains and Platforms: A New Approach to Big Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Analysis of Time-Varying Crowding on Subway Platforms using AFC Data in Seoul Metropolitan Subway Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 기반 시퀀스 투 시퀀스 모델과 loT 센서 발전이 교통 혼잡 예측 성능을 향상시키고 있음. 
+또한 회귀 및 분류 관점의 평가 지표와 혼잡 예측을 위한 표준 절차도 제시하여 지능형 교통 시스템 개발에 유용한 통찰 제공</t>
+  </si>
+  <si>
+    <t>도로망에서의 복잡한 공간적 의존성, 도로 조건 변화에 따른 비선형적인 시간적 동태성, 장기 예측의 고유한 어려움 같은 어려움을 해결하기 위해 교통 흐름을 방향 그래프에서의 확산 과정으로 모델링하고, 이를 기반으로 DCRNN이라는 딥러닝 프레임워크를 제안함</t>
+  </si>
+  <si>
+    <t>버스 승객 흐름 예측의 정확도를 높이기 위해 웨이블릿 패킷 분해, 어텐션 매커니즘, 양방향 LSTM을 결합한 하이브리드 예측 모델을 제안함. 하얼빈 시의 버스 승객 흐름 데이터를 사용하여 실험한 결과, 제안된 모델은 기존 5개의 기준 모델보다 더 높은 예측 정확도를 보임</t>
+  </si>
+  <si>
+    <t>LSTM 모델을 기반으로 스페인 마드리드에서 가장 수요가 많은 버스 노선을 대상으로 높은 예측 정확도를 유지함. 이후 의사결정에 유용한 언어 기반 설명 가능 모델(XAI)을 구현함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스마트시티 환경에서 교통 혼잡 탐지를 위해 강화학습과 설명 가능한 인공지능(XAI)를 결합한 새로운 접근법 제안.
+강화학습 기반 적응형 학습과 XAI 기반 해석력을 결합함으로써, 기존 교통 혼잡 탐지 방법보다 더 정확하고 투명한 예측을 가능하게 함. </t>
+  </si>
+  <si>
+    <t>다양한 전이학습 기반 모델을 활용해 사고 심각도 예측, Shapley 값을 사용하여 각 변수의 기여도를 정량적으로 분석해 설명 가능성(XAI) 확보함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso 정규화 회귀 및 다변량 PLS 회귀를 이용해 승객 수 및 하차 수 예측, 확률 기반 좌석 배정 모델과 편향 보정 단계를 포함 </t>
+  </si>
+  <si>
+    <t>도시 인구 증가로 인한 교통 혼잡 문제를 해결하기 위해 통계, 머신러닝, 딥러닝 기반의 다양한 예측 기법과 평가 지표들을 종합적으로 분석하고, 지능형 교통 시스템 구축에 중요한 교통 혼잡 예측의 최신 동향과 과제를 제시함.</t>
+  </si>
+  <si>
+    <t>오픈 소스 데이터와 대중교통 스마트카드 데이터를 활용해 열차 및 플랫폼의 혼잡도를 추정하는 새로운 접근법을 제시. 시드니 철도를 사례로 전체 열차 서비스의 혼잡도 프로파일을 구축하고 검증함.</t>
+  </si>
+  <si>
+    <t>지하철 승강장의 혼잡도를 실시간으로 정확히 추정하기 위해, 스마트카드 데이터를 활용한 동적 혼잡도 추정 모델 제안. 승객의 이동 경로를 추적하고, 플랫폼 내 분산 및 집중되는 승객 흐름을 분 단위로 계산하며, 각 승강장의 유효 대기 공간을 반영해 혼잡도를 추정함으로써 기존 수작업 중심의 한계를 극복하고자 한다.</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1195,26 +1386,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1224,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,95 +1501,77 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1756,807 +1909,1230 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5D9BC-3531-42E1-9DE0-9C4613F6865D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="65.25" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5" customWidth="1"/>
-    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.83203125" customWidth="1"/>
-    <col min="13" max="13" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="65.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="12" max="12" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.83203125" customWidth="1"/>
+    <col min="14" max="14" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="32"/>
-    </row>
-    <row r="2" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="54">
+      <c r="D3" s="49">
         <v>2010</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="G3" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="H3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="55" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="L3" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="M3" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="N3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="56"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="42" t="s">
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="28">
+      <c r="D4" s="28">
         <v>2015</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="H4" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>2013</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="34" t="s">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="31">
+      <c r="D5" s="31">
         <v>2015</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="H5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="40">
+      <c r="J5" s="37">
         <v>41758</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M5" s="13"/>
       <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="42" t="s">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="28">
+      <c r="D6" s="28">
         <v>2016</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="H6" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="30">
+      <c r="D7" s="30">
         <v>2019</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="H7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="13"/>
+      <c r="O7" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="33">
+      <c r="D8" s="33">
         <v>2019</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="E8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="H8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="40">
+      <c r="J8" s="37">
         <v>42660</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="29">
+      <c r="D9" s="29">
         <v>2020</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="E9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="H9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="I9" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="N9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="52" t="s">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="C10" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="54">
+      <c r="D10" s="49">
         <v>2020</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="G10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="H10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="I10" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="52">
+      <c r="J10" s="47">
         <v>2018</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="K10" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="L10" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="M10" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="N10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="56"/>
-    </row>
-    <row r="11" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="O10" s="51"/>
+    </row>
+    <row r="11" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="C11" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="29">
+      <c r="D11" s="29">
         <v>2020</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="E11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="H11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="40">
+      <c r="J11" s="37">
         <v>42660</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="34" t="s">
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="31">
+      <c r="D12" s="31">
         <v>2021</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="E12" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="H12" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="40">
+      <c r="J12" s="37">
         <v>43593</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="L12" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="29">
+      <c r="D13" s="29">
         <v>2023</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="E13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="H13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="38" t="s">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="29">
+      <c r="D14" s="29">
         <v>2023</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="E14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="H14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="L14" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="30">
+      <c r="D15" s="30">
         <v>2023</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="E15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="H15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="J15" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="L15" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="N15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.45">
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.45">
       <c r="A16" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="29">
+      <c r="D16" s="29">
         <v>2024</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="E16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="H16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="29" x14ac:dyDescent="0.45">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2025</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="29">
+        <v>2023</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+      <c r="A20" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="29">
+        <v>2019</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="58" x14ac:dyDescent="0.45">
+      <c r="A21" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="72.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="72.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+      <c r="A24" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C24" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="58">
+      <c r="D24" s="29">
         <v>2023.3</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="I24" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="60">
+      <c r="J24" s="3">
         <v>2019</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="K24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="L24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="M24" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="39" t="s">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C25" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="58">
+      <c r="D25" s="29">
         <v>2024.12</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="I25" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="J25" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J18" s="60" t="s">
+      <c r="K25" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="60" t="s">
+      <c r="L25" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="M25" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.45">
-      <c r="A19" s="39" t="s">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+      <c r="A26" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="58">
+      <c r="D26" s="29">
         <v>2024.1</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="I26" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="I19" s="60">
+      <c r="J26" s="3">
         <v>2024</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="K26" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K19" s="60" t="s">
+      <c r="L26" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="M26" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="61" t="s">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="68" x14ac:dyDescent="0.45">
+      <c r="A27" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="29"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="102" x14ac:dyDescent="0.45">
+      <c r="A28" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="29"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="51" x14ac:dyDescent="0.45">
+      <c r="A29" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="29"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="C30" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="46">
+      <c r="D30" s="29">
         <v>2023.1</v>
       </c>
-      <c r="K20" s="47" t="s">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="18" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="61" t="s">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="K21" s="47" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="18" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="87" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="87" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="C32" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="64">
+      <c r="D32" s="29">
         <v>2018.3</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="18" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="145" x14ac:dyDescent="0.45">
-      <c r="A23" s="61" t="s">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="145" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="C33" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="K23" s="47" t="s">
+      <c r="D33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="18" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="43.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="61" t="s">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="K24" s="47" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="18" t="s">
         <v>220</v>
       </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="85" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="68" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="58" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="119" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="58" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N16" xr:uid="{79D5D9BC-3531-42E1-9DE0-9C4613F6865D}">
+  <autoFilter ref="B2:O16" xr:uid="{79D5D9BC-3531-42E1-9DE0-9C4613F6865D}">
     <filterColumn colId="0">
       <filters>
         <filter val="GRU를 이용한 서울시 지하철 구간별 혼잡도 예측 모델 연구"/>
@@ -2573,16 +3149,16 @@
         <filter val="지하철 혼잡도 예측을 위한 멀티스트림 하이브리드 딥러닝 프레임워크"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N16">
-      <sortCondition ref="C2"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O16">
+      <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{AF4AB0A8-E5E8-4688-9A38-719AAEE40941}"/>
+    <hyperlink ref="G13" r:id="rId1" xr:uid="{AF4AB0A8-E5E8-4688-9A38-719AAEE40941}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2593,7 +3169,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2904,13 +3480,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">

--- a/Project/SubwayPrediction/Reference/선행연구_지하철혼잡도예측.xlsx
+++ b/Project/SubwayPrediction/Reference/선행연구_지하철혼잡도예측.xlsx
@@ -5,20 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\SubwayPrediction\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project\SubwayPrediction\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116DE77-B47E-462A-9CB9-237A9183AA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC28622-1F37-4385-AC0A-1D3F8FDDCCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
   </bookViews>
   <sheets>
     <sheet name="지하철" sheetId="2" r:id="rId1"/>
-    <sheet name="데이터" sheetId="3" r:id="rId2"/>
-    <sheet name="유학생" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="지하철Table" sheetId="4" r:id="rId2"/>
+    <sheet name="데이터" sheetId="3" r:id="rId3"/>
+    <sheet name="유학생" sheetId="1" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">지하철!$B$2:$O$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">지하철Table!$A$2:$O$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="301">
   <si>
     <t>출처</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,30 +996,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Advances in Traffic Congestion Prediction: An Overview of Emerging Techniques and Methods</t>
-  </si>
-  <si>
-    <t>Diffusion Convolutional Recurrent Neural Network: Data-Driven Traffic Forecasting</t>
-  </si>
-  <si>
-    <t>Bus-Passenger-Flow Prediction Model Based on WPD, Attention Mechanism, and Bi-LSTM</t>
-  </si>
-  <si>
     <t>교통분야 AI기반 혼잡도 예측</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>교통분야 XAI기반 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deep Learning XAI for Bus Passenger Forecasting: A Use Case in Spain</t>
-  </si>
-  <si>
-    <t>Towards Transparent Traffic Solutions: Reinforcement Learning and Explainable AI for Traffic Congestion</t>
-  </si>
-  <si>
-    <t>Improving traffic accident severity prediction using MobileNet transfer learning model and SHAP XAI technique</t>
   </si>
   <si>
     <t>Advances in Traffic Congestion Prediction: An Overview of Emerging Techniques and Methods</t>
@@ -1049,10 +1033,6 @@
     <t>LSTM 모델을 기반으로 스페인 마드리드에서 가장 수요가 많은 버스 노선을 대상으로 높은 예측 정확도를 유지함. 이후 의사결정에 유용한 언어 기반 설명 가능 모델(XAI)을 구현함.</t>
   </si>
   <si>
-    <t xml:space="preserve">스마트시티 환경에서 교통 혼잡 탐지를 위해 강화학습과 설명 가능한 인공지능(XAI)를 결합한 새로운 접근법 제안.
-강화학습 기반 적응형 학습과 XAI 기반 해석력을 결합함으로써, 기존 교통 혼잡 탐지 방법보다 더 정확하고 투명한 예측을 가능하게 함. </t>
-  </si>
-  <si>
     <t>다양한 전이학습 기반 모델을 활용해 사고 심각도 예측, Shapley 값을 사용하여 각 변수의 기여도를 정량적으로 분석해 설명 가능성(XAI) 확보함.</t>
   </si>
   <si>
@@ -1066,6 +1046,150 @@
   </si>
   <si>
     <t>지하철 승강장의 혼잡도를 실시간으로 정확히 추정하기 위해, 스마트카드 데이터를 활용한 동적 혼잡도 추정 모델 제안. 승객의 이동 경로를 추적하고, 플랫폼 내 분산 및 집중되는 승객 흐름을 분 단위로 계산하며, 각 승강장의 유효 대기 공간을 반영해 혼잡도를 추정함으로써 기존 수작업 중심의 한계를 극복하고자 한다.</t>
+  </si>
+  <si>
+    <t>Advances in Traffic Congestion Prediction: An Overview of Emerging Techniques and Methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smart cities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diffusion Convolutional Recurrent Neural Network: Data-Driven Traffic Forecasting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METR-LA of Los Angeles Country, PEMS-BAY of California (2개 DB 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012년 3월 1일 ~ 6월 30일,  2017년 1월 1일 ~ 5월 31일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARIMA, VAR, SVR, FNN, FC-LSTM, DCNN, DCRNN, DCRNN-SEQ, GCRNN 등 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCRNN 기준 89.5~97.1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus-Passenger-Flow Prediction Model Based on WPD, Attention Mechanism, and Bi-LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sustainability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC Card Swipe Data (1개 DB 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021년 3월 ~ 10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스 승객수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVR, XGBoost, Bi-LSTM, ATT-BiLSTM, WPD-BiLSTM, WPD-ATT-BiLSTM 6개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDP-ATT-BiLSTM 기준 91.453~97.717%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning XAI for Bus Passenger Forecasting: A Use Case in Spain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015년 1월 ~ 2017년 2월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mathematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGBoost, Random Forest, SVM, DNN, LSTM 등 7개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM 기준 R^2 89%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving traffic accident severity prediction using MobileNet transfer learning model and SHAP XAI technique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고 부상 심각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plos One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016 ~ 2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accident Data from New Zealand Crash Analysis System (2개 DB 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP, CNN, LSTM, ResNet, EfficientNetB4, InceptionV3, Xception, MobileNet 8개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileNet 기준 F1-score 98.48%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하철 정량적 혼잡도 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019, 2022년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013 ~ 2014년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011 ~ 2015년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 ~ 2023년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016 ~ 2020년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1313,7 +1437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1386,6 +1510,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1395,7 +1574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1555,6 +1734,15 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1564,14 +1752,44 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1909,51 +2127,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5D9BC-3531-42E1-9DE0-9C4613F6865D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="65.25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="65.19921875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="12" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.83203125" customWidth="1"/>
+    <col min="12" max="12" width="65.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.796875" customWidth="1"/>
     <col min="14" max="14" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="32"/>
     </row>
-    <row r="2" spans="1:15" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>221</v>
       </c>
@@ -2000,7 +2218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="B3" s="47" t="s">
         <v>139</v>
       </c>
@@ -2038,7 +2256,7 @@
       </c>
       <c r="O3" s="51"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>222</v>
       </c>
@@ -2083,7 +2301,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="39" t="s">
         <v>222</v>
       </c>
@@ -2126,7 +2344,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
         <v>222</v>
       </c>
@@ -2173,7 +2391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
         <v>222</v>
       </c>
@@ -2218,7 +2436,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
         <v>222</v>
       </c>
@@ -2261,7 +2479,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
         <v>222</v>
       </c>
@@ -2306,7 +2524,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="B10" s="47" t="s">
         <v>52</v>
       </c>
@@ -2346,7 +2564,7 @@
       </c>
       <c r="O10" s="51"/>
     </row>
-    <row r="11" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
         <v>222</v>
       </c>
@@ -2389,7 +2607,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="39" t="s">
         <v>222</v>
       </c>
@@ -2432,7 +2650,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="39" t="s">
         <v>222</v>
       </c>
@@ -2475,7 +2693,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="39" t="s">
         <v>222</v>
       </c>
@@ -2522,7 +2740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="39" t="s">
         <v>222</v>
       </c>
@@ -2567,7 +2785,7 @@
       </c>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A16" s="39" t="s">
         <v>222</v>
       </c>
@@ -2610,7 +2828,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A17" s="39" t="s">
         <v>222</v>
       </c>
@@ -2623,10 +2841,10 @@
       <c r="D17" s="29">
         <v>2025</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="56"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="18" t="s">
         <v>226</v>
       </c>
@@ -2645,7 +2863,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="39" t="s">
         <v>222</v>
       </c>
@@ -2658,10 +2876,10 @@
       <c r="D18" s="29">
         <v>2024</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="56"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="3" t="s">
         <v>231</v>
       </c>
@@ -2680,7 +2898,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="39" t="s">
         <v>222</v>
       </c>
@@ -2693,10 +2911,10 @@
       <c r="D19" s="29">
         <v>2023</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="56"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="3" t="s">
         <v>241</v>
       </c>
@@ -2715,7 +2933,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A20" s="39" t="s">
         <v>222</v>
       </c>
@@ -2728,10 +2946,10 @@
       <c r="D20" s="29">
         <v>2019</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="56"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="3" t="s">
         <v>242</v>
       </c>
@@ -2750,78 +2968,110 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="58" x14ac:dyDescent="0.45">
-      <c r="A21" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="B21" s="36" t="s">
+    <row r="21" spans="1:15" s="42" customFormat="1" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="72.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="61">
+        <v>2025</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="66" x14ac:dyDescent="0.4">
       <c r="A22" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="29">
+        <v>2018</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="72.5" x14ac:dyDescent="0.45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="66" x14ac:dyDescent="0.4">
       <c r="A23" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="29">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A24" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>182</v>
@@ -2850,9 +3100,9 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>196</v>
@@ -2881,9 +3131,9 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A26" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>202</v>
@@ -2912,195 +3162,221 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="68" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A27" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="29"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="29">
+        <v>2022.4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="58" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="102" x14ac:dyDescent="0.45">
+      <c r="O27" s="55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A28" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="29"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="29">
+        <v>2024.4</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="51" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
-        <v>254</v>
-      </c>
+      <c r="O28" s="55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
       <c r="B29" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="29"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="29">
+        <v>2023.1</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="29">
-        <v>2023.1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="43.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="79.2" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="29">
+        <v>2018.3</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="18" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="87" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="132" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="29">
-        <v>2018.3</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="145" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>216</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="43.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="36" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="18" t="s">
-        <v>220</v>
-      </c>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.45">
+      <c r="O34" s="55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="87" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="36" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="58" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="85" x14ac:dyDescent="0.45">
+      <c r="O35" s="55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="36" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="58" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="68" x14ac:dyDescent="0.45">
+      <c r="O36" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="36" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3110,25 +3386,8 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="58" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="119" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
-      <c r="B38" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="58" t="s">
-        <v>271</v>
+      <c r="O37" s="55" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3165,6 +3424,988 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04731188-192A-47C4-A1FA-6FA02DA53001}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="65.19921875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="12" max="12" width="65.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.796875" customWidth="1"/>
+    <col min="14" max="14" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="67"/>
+      <c r="B4" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="31">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="37">
+        <v>41758</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="67"/>
+      <c r="B5" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2016</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="67"/>
+      <c r="B6" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="30">
+        <v>2019</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="67"/>
+      <c r="B7" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="33">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="37">
+        <v>42660</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" s="42" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A8" s="67"/>
+      <c r="B8" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="67"/>
+      <c r="B9" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="29">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="67"/>
+      <c r="B10" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="29">
+        <v>2020</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="37">
+        <v>42660</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="67"/>
+      <c r="B11" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="31">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="37">
+        <v>43593</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="67"/>
+      <c r="B12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="67"/>
+      <c r="B13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="29">
+        <v>2023</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="67"/>
+      <c r="B14" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="30">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="67"/>
+      <c r="B15" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="29">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2024</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="67"/>
+      <c r="B17" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2024</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A18" s="68"/>
+      <c r="B18" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2025</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="66" x14ac:dyDescent="0.4">
+      <c r="A19" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="29">
+        <v>2018</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="66" x14ac:dyDescent="0.4">
+      <c r="A20" s="70"/>
+      <c r="B20" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="29">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A21" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2022</v>
+      </c>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A22" s="71"/>
+      <c r="B22" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="29">
+        <v>2023</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A23" s="71"/>
+      <c r="B23" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="29">
+        <v>2024</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="71"/>
+      <c r="B24" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="29">
+        <v>2024</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A25" s="71"/>
+      <c r="B25" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="29">
+        <v>2024</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:O2" xr:uid="{04731188-192A-47C4-A1FA-6FA02DA53001}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O20">
+    <sortCondition descending="1" ref="A3:A20"/>
+    <sortCondition ref="D3:D20"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G12" r:id="rId1" xr:uid="{CF85851B-E516-4096-98A0-8DA119000C05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0080DD5B-4805-477A-9DEF-4B509F922164}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -3172,18 +4413,18 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.796875" customWidth="1"/>
     <col min="2" max="2" width="122" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" customWidth="1"/>
-    <col min="5" max="5" width="65.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
+    <col min="5" max="5" width="65.796875" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" customWidth="1"/>
+    <col min="7" max="7" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -3206,7 +4447,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
@@ -3227,7 +4468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>100</v>
       </c>
@@ -3250,7 +4491,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
         <v>79</v>
       </c>
@@ -3273,7 +4514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -3292,7 +4533,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
         <v>87</v>
       </c>
@@ -3313,7 +4554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>92</v>
       </c>
@@ -3336,7 +4577,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>96</v>
       </c>
@@ -3359,7 +4600,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
@@ -3382,7 +4623,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -3403,7 +4644,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -3422,7 +4663,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -3431,7 +4672,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -3440,7 +4681,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -3449,7 +4690,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="23"/>
     </row>
   </sheetData>
@@ -3462,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57BCB79-3DFD-42BD-8E12-D0AD6B4E867D}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -3470,26 +4711,26 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="74.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="84.25" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.58203125" customWidth="1"/>
+    <col min="1" max="1" width="74.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.296875" customWidth="1"/>
+    <col min="3" max="3" width="84.19921875" customWidth="1"/>
+    <col min="4" max="4" width="36.796875" customWidth="1"/>
+    <col min="6" max="6" width="26.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3507,7 +4748,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3525,7 +4766,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -3543,7 +4784,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -3557,7 +4798,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -3573,7 +4814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3581,7 +4822,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3589,7 +4830,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3597,7 +4838,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3605,7 +4846,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3613,7 +4854,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>

--- a/Project/SubwayPrediction/Reference/선행연구_지하철혼잡도예측.xlsx
+++ b/Project/SubwayPrediction/Reference/선행연구_지하철혼잡도예측.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project\SubwayPrediction\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\SubwayPrediction\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC28622-1F37-4385-AC0A-1D3F8FDDCCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F32ED-028A-4F22-A5D8-151D8DF87E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
   </bookViews>
   <sheets>
     <sheet name="지하철" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="306">
   <si>
     <t>출처</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,6 +1189,26 @@
   </si>
   <si>
     <t>2016 ~ 2020년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nber.org/reporter/2023number2/evaluating-urban-transportation-policies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://medium.com/%40CUTR/development-of-comprehensive-roadmap-and-resource-guide-towards-congestion-reduction-e0e32391079d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>런던은 2003년부터 중심부 진입 차량에 대해 혼잡통행료를 부과하여 교통량을 10% 감소시키고, 배출가스를 줄이며, 교통사고를 40%까지 감소시켰습니다. 이러한 정책은 뉴욕, 싱가포르, 스톡홀름 등 다른 도시에도 영향을 미쳤습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.wired.com/2015/03/londons-congestion-pricing-plan-saving-lives/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>London's Congestion Pricing Plan Is Saving Lives</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1393,7 +1413,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1433,6 +1453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,7 +1600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1743,53 +1769,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2127,51 +2165,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5D9BC-3531-42E1-9DE0-9C4613F6865D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="65.19921875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="65.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="12" width="65.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.796875" customWidth="1"/>
+    <col min="12" max="12" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.83203125" customWidth="1"/>
     <col min="14" max="14" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
       <c r="O1" s="32"/>
     </row>
-    <row r="2" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>221</v>
       </c>
@@ -2218,7 +2256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="B3" s="47" t="s">
         <v>139</v>
       </c>
@@ -2256,7 +2294,7 @@
       </c>
       <c r="O3" s="51"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>222</v>
       </c>
@@ -2301,7 +2339,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="39" t="s">
         <v>222</v>
       </c>
@@ -2344,7 +2382,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="39" t="s">
         <v>222</v>
       </c>
@@ -2391,7 +2429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="39" t="s">
         <v>222</v>
       </c>
@@ -2436,7 +2474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="39" t="s">
         <v>222</v>
       </c>
@@ -2479,7 +2517,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
         <v>222</v>
       </c>
@@ -2524,7 +2562,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10" s="47" t="s">
         <v>52</v>
       </c>
@@ -2564,7 +2602,7 @@
       </c>
       <c r="O10" s="51"/>
     </row>
-    <row r="11" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="39" t="s">
         <v>222</v>
       </c>
@@ -2607,7 +2645,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
         <v>222</v>
       </c>
@@ -2650,7 +2688,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="39" t="s">
         <v>222</v>
       </c>
@@ -2693,7 +2731,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="39" t="s">
         <v>222</v>
       </c>
@@ -2740,7 +2778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="39" t="s">
         <v>222</v>
       </c>
@@ -2785,7 +2823,7 @@
       </c>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.45">
       <c r="A16" s="39" t="s">
         <v>222</v>
       </c>
@@ -2828,7 +2866,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
         <v>222</v>
       </c>
@@ -2863,7 +2901,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="39" t="s">
         <v>222</v>
       </c>
@@ -2898,7 +2936,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="39" t="s">
         <v>222</v>
       </c>
@@ -2933,7 +2971,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.45">
       <c r="A20" s="39" t="s">
         <v>222</v>
       </c>
@@ -2968,17 +3006,17 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" s="42" customFormat="1" ht="52.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" s="42" customFormat="1" ht="58" x14ac:dyDescent="0.45">
       <c r="A21" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="58">
         <v>2025</v>
       </c>
       <c r="E21" s="53"/>
@@ -2986,16 +3024,16 @@
       <c r="G21" s="54"/>
       <c r="H21" s="53"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="62"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="40"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="62" t="s">
+      <c r="O21" s="59" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="66" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="72.5" x14ac:dyDescent="0.45">
       <c r="A22" s="39" t="s">
         <v>250</v>
       </c>
@@ -3032,7 +3070,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="66" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="72.5" x14ac:dyDescent="0.45">
       <c r="A23" s="39" t="s">
         <v>250</v>
       </c>
@@ -3069,7 +3107,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.45">
       <c r="A24" s="39" t="s">
         <v>251</v>
       </c>
@@ -3100,7 +3138,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="39" t="s">
         <v>251</v>
       </c>
@@ -3131,7 +3169,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.45">
       <c r="A26" s="39" t="s">
         <v>251</v>
       </c>
@@ -3162,7 +3200,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" ht="68" x14ac:dyDescent="0.45">
       <c r="A27" s="39" t="s">
         <v>251</v>
       </c>
@@ -3195,7 +3233,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="51" x14ac:dyDescent="0.45">
       <c r="A28" s="39" t="s">
         <v>251</v>
       </c>
@@ -3228,28 +3266,32 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="36" t="s">
+    <row r="29" spans="1:15" s="74" customFormat="1" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="70"/>
+      <c r="B29" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="75">
         <v>2023.1</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="18" t="s">
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+    </row>
+    <row r="30" spans="1:15" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="36" t="s">
         <v>211</v>
@@ -3262,11 +3304,13 @@
       <c r="L30" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="M30" s="1"/>
+      <c r="M30" s="69" t="s">
+        <v>301</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="79.2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" ht="87" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="36" t="s">
         <v>213</v>
@@ -3287,26 +3331,30 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="132" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="36" t="s">
+    <row r="32" spans="1:15" s="74" customFormat="1" ht="145" x14ac:dyDescent="0.45">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="18" t="s">
+      <c r="D32" s="70"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+    </row>
+    <row r="33" spans="1:15" ht="43.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="36" t="s">
         <v>219</v>
@@ -3319,50 +3367,56 @@
       <c r="L33" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="M33" s="1"/>
+      <c r="M33" s="69" t="s">
+        <v>302</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="36" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="L34" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" s="69" t="s">
+        <v>304</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="55" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="87" x14ac:dyDescent="0.4">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="69"/>
       <c r="N35" s="1"/>
       <c r="O35" s="55" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="85" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3370,13 +3424,13 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="55" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="121.8" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="68" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3387,6 +3441,23 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="119" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="55" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3418,6 +3489,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" xr:uid="{AF4AB0A8-E5E8-4688-9A38-719AAEE40941}"/>
+    <hyperlink ref="M30" r:id="rId2" xr:uid="{D8C36DC7-4967-434F-A60B-553649B15A59}"/>
+    <hyperlink ref="M33" r:id="rId3" xr:uid="{F6A041E9-0053-443B-BFFB-E1EC5CDB3337}"/>
+    <hyperlink ref="M34" r:id="rId4" xr:uid="{5DB5D2C2-47DA-4E86-8C43-099953EBA744}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3427,49 +3501,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04731188-192A-47C4-A1FA-6FA02DA53001}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="65.19921875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="65.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="12" width="65.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.796875" customWidth="1"/>
+    <col min="12" max="12" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.83203125" customWidth="1"/>
     <col min="14" max="14" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
       <c r="O1" s="32"/>
     </row>
-    <row r="2" spans="1:15" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>221</v>
       </c>
@@ -3516,8 +3590,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="62" t="s">
         <v>293</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -3561,8 +3635,8 @@
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="67"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="63"/>
       <c r="B4" s="34" t="s">
         <v>145</v>
       </c>
@@ -3602,8 +3676,8 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="67"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="63"/>
       <c r="B5" s="39" t="s">
         <v>176</v>
       </c>
@@ -3647,8 +3721,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="67"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="63"/>
       <c r="B6" s="35" t="s">
         <v>138</v>
       </c>
@@ -3690,8 +3764,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="67"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="63"/>
       <c r="B7" s="38" t="s">
         <v>144</v>
       </c>
@@ -3731,8 +3805,8 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" s="42" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A8" s="67"/>
+    <row r="8" spans="1:15" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.45">
+      <c r="A8" s="63"/>
       <c r="B8" s="36" t="s">
         <v>239</v>
       </c>
@@ -3764,8 +3838,8 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="67"/>
+    <row r="9" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="63"/>
       <c r="B9" s="36" t="s">
         <v>180</v>
       </c>
@@ -3807,8 +3881,8 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="67"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="63"/>
       <c r="B10" s="34" t="s">
         <v>134</v>
       </c>
@@ -3848,8 +3922,8 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="67"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="63"/>
       <c r="B11" s="34" t="s">
         <v>128</v>
       </c>
@@ -3889,8 +3963,8 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="67"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="63"/>
       <c r="B12" s="35" t="s">
         <v>24</v>
       </c>
@@ -3930,8 +4004,8 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="67"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="63"/>
       <c r="B13" s="35" t="s">
         <v>25</v>
       </c>
@@ -3975,8 +4049,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="67"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="63"/>
       <c r="B14" s="34" t="s">
         <v>143</v>
       </c>
@@ -4018,8 +4092,8 @@
       </c>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="67"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="63"/>
       <c r="B15" s="36" t="s">
         <v>237</v>
       </c>
@@ -4051,8 +4125,8 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+      <c r="A16" s="63"/>
       <c r="B16" s="36" t="s">
         <v>181</v>
       </c>
@@ -4062,16 +4136,16 @@
       <c r="D16" s="29">
         <v>2024</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="53" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="18" t="s">
@@ -4092,8 +4166,8 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="67"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="63"/>
       <c r="B17" s="36" t="s">
         <v>229</v>
       </c>
@@ -4125,8 +4199,8 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A18" s="68"/>
+    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+      <c r="A18" s="64"/>
       <c r="B18" s="36" t="s">
         <v>223</v>
       </c>
@@ -4158,8 +4232,8 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="66" x14ac:dyDescent="0.4">
-      <c r="A19" s="69" t="s">
+    <row r="19" spans="1:15" ht="72.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="65" t="s">
         <v>250</v>
       </c>
       <c r="B19" s="36" t="s">
@@ -4171,10 +4245,10 @@
       <c r="D19" s="29">
         <v>2018</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="63"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="3" t="s">
         <v>270</v>
       </c>
@@ -4195,8 +4269,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="66" x14ac:dyDescent="0.4">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:15" ht="72.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="66"/>
       <c r="B20" s="36" t="s">
         <v>274</v>
       </c>
@@ -4230,8 +4304,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.45">
+      <c r="A21" s="65" t="s">
         <v>251</v>
       </c>
       <c r="B21" s="36" t="s">
@@ -4243,10 +4317,6 @@
       <c r="D21" s="29">
         <v>2022</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
       <c r="I21" s="3" t="s">
         <v>276</v>
       </c>
@@ -4267,8 +4337,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+      <c r="A22" s="67"/>
       <c r="B22" s="36" t="s">
         <v>182</v>
       </c>
@@ -4296,8 +4366,8 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A23" s="71"/>
+    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.45">
+      <c r="A23" s="67"/>
       <c r="B23" s="36" t="s">
         <v>202</v>
       </c>
@@ -4325,8 +4395,8 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="71"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="67"/>
       <c r="B24" s="36" t="s">
         <v>196</v>
       </c>
@@ -4354,8 +4424,8 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="71"/>
+    <row r="25" spans="1:15" ht="51" x14ac:dyDescent="0.45">
+      <c r="A25" s="67"/>
       <c r="B25" s="36" t="s">
         <v>286</v>
       </c>
@@ -4413,18 +4483,18 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.796875" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
     <col min="2" max="2" width="122" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="65.796875" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" customWidth="1"/>
-    <col min="7" max="7" width="54.69921875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" customWidth="1"/>
+    <col min="5" max="5" width="65.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
@@ -4447,7 +4517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
@@ -4468,7 +4538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>100</v>
       </c>
@@ -4491,7 +4561,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
         <v>79</v>
       </c>
@@ -4514,7 +4584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -4533,7 +4603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>87</v>
       </c>
@@ -4554,7 +4624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
         <v>92</v>
       </c>
@@ -4577,7 +4647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>96</v>
       </c>
@@ -4600,7 +4670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>104</v>
       </c>
@@ -4623,7 +4693,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -4644,7 +4714,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -4663,7 +4733,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -4672,7 +4742,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -4681,7 +4751,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -4690,7 +4760,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="23"/>
     </row>
   </sheetData>
@@ -4711,26 +4781,26 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="74.796875" customWidth="1"/>
-    <col min="2" max="2" width="24.296875" customWidth="1"/>
-    <col min="3" max="3" width="84.19921875" customWidth="1"/>
-    <col min="4" max="4" width="36.796875" customWidth="1"/>
-    <col min="6" max="6" width="26.59765625" customWidth="1"/>
+    <col min="1" max="1" width="74.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="84.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4748,7 +4818,7 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4766,7 +4836,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4854,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -4798,7 +4868,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -4814,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4822,7 +4892,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -4830,7 +4900,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4838,7 +4908,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -4846,7 +4916,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -4854,7 +4924,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
